--- a/artfynd/A 30593-2019.xlsx
+++ b/artfynd/A 30593-2019.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY24"/>
+  <dimension ref="A1:AY36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3451,6 +3451,1458 @@
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>112183145</v>
+      </c>
+      <c r="B25" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Hofors, Gstr</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>572350.5295246423</v>
+      </c>
+      <c r="R25" t="n">
+        <v>6714907.161790377</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>112183148</v>
+      </c>
+      <c r="B26" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Hofors, Gstr</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>572357.010226473</v>
+      </c>
+      <c r="R26" t="n">
+        <v>6714903.357076311</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+        </is>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>112183149</v>
+      </c>
+      <c r="B27" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Hofors, Gstr</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>572344.933659862</v>
+      </c>
+      <c r="R27" t="n">
+        <v>6714965.086473988</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+        </is>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>112183137</v>
+      </c>
+      <c r="B28" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Hofors, Gstr</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>572353.8764406883</v>
+      </c>
+      <c r="R28" t="n">
+        <v>6714961.331215038</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+        </is>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>112183134</v>
+      </c>
+      <c r="B29" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Hofors, Gstr</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>572354.2307759319</v>
+      </c>
+      <c r="R29" t="n">
+        <v>6714968.224010544</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+        </is>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>112183140</v>
+      </c>
+      <c r="B30" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Hofors, Gstr</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>572349.9172128371</v>
+      </c>
+      <c r="R30" t="n">
+        <v>6714962.235448033</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+        </is>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>112183141</v>
+      </c>
+      <c r="B31" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Hofors, Gstr</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>572360.8881189874</v>
+      </c>
+      <c r="R31" t="n">
+        <v>6714980.161596241</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+        </is>
+      </c>
+      <c r="AD31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AX31" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AY31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>112183143</v>
+      </c>
+      <c r="B32" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Hofors, Gstr</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>572358.9405480863</v>
+      </c>
+      <c r="R32" t="n">
+        <v>6714905.363180133</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+        </is>
+      </c>
+      <c r="AD32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AX32" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AY32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>112183150</v>
+      </c>
+      <c r="B33" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Hofors, Gstr</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>572358.0913486973</v>
+      </c>
+      <c r="R33" t="n">
+        <v>6714972.236145046</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+        </is>
+      </c>
+      <c r="AD33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="inlineStr"/>
+      <c r="AW33" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AX33" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AY33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>112183151</v>
+      </c>
+      <c r="B34" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Hofors, Gstr</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>572360.9275804338</v>
+      </c>
+      <c r="R34" t="n">
+        <v>6714978.195056892</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+        </is>
+      </c>
+      <c r="AD34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT34" t="inlineStr"/>
+      <c r="AW34" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AX34" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AY34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>112183147</v>
+      </c>
+      <c r="B35" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Hofors, Gstr</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>572350.8641464638</v>
+      </c>
+      <c r="R35" t="n">
+        <v>6714915.037975621</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+        </is>
+      </c>
+      <c r="AD35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT35" t="inlineStr"/>
+      <c r="AW35" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AX35" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AY35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>112183146</v>
+      </c>
+      <c r="B36" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Hofors, Gstr</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>572346.3926985958</v>
+      </c>
+      <c r="R36" t="n">
+        <v>6714916.915632093</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Gävleborg</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Hofors</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Gästrikland</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Torsåker</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+        </is>
+      </c>
+      <c r="AD36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT36" t="inlineStr"/>
+      <c r="AW36" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AX36" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AY36" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 30593-2019.xlsx
+++ b/artfynd/A 30593-2019.xlsx
@@ -4300,7 +4300,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112183143</v>
+        <v>112183150</v>
       </c>
       <c r="B32" t="n">
         <v>96348</v>
@@ -4344,10 +4344,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>572358.9405480863</v>
+        <v>572358.0913486973</v>
       </c>
       <c r="R32" t="n">
-        <v>6714905.363180133</v>
+        <v>6714972.236145046</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -4421,7 +4421,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112183150</v>
+        <v>112183143</v>
       </c>
       <c r="B33" t="n">
         <v>96348</v>
@@ -4465,10 +4465,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>572358.0913486973</v>
+        <v>572358.9405480863</v>
       </c>
       <c r="R33" t="n">
-        <v>6714972.236145046</v>
+        <v>6714905.363180133</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>

--- a/artfynd/A 30593-2019.xlsx
+++ b/artfynd/A 30593-2019.xlsx
@@ -3453,7 +3453,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112183145</v>
+        <v>112183141</v>
       </c>
       <c r="B25" t="n">
         <v>96348</v>
@@ -3497,10 +3497,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>572350.5295246423</v>
+        <v>572361</v>
       </c>
       <c r="R25" t="n">
-        <v>6714907.161790377</v>
+        <v>6714980</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3530,19 +3530,9 @@
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA25" t="inlineStr">
         <is>
           <t>2023-08-23</t>
-        </is>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
@@ -3574,7 +3564,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112183148</v>
+        <v>112183151</v>
       </c>
       <c r="B26" t="n">
         <v>96348</v>
@@ -3618,10 +3608,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>572357.010226473</v>
+        <v>572361</v>
       </c>
       <c r="R26" t="n">
-        <v>6714903.357076311</v>
+        <v>6714978</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3651,19 +3641,9 @@
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA26" t="inlineStr">
         <is>
           <t>2023-08-23</t>
-        </is>
-      </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
@@ -3695,7 +3675,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112183149</v>
+        <v>112183148</v>
       </c>
       <c r="B27" t="n">
         <v>96348</v>
@@ -3739,10 +3719,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>572344.933659862</v>
+        <v>572357</v>
       </c>
       <c r="R27" t="n">
-        <v>6714965.086473988</v>
+        <v>6714903</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -3772,19 +3752,9 @@
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA27" t="inlineStr">
         <is>
           <t>2023-08-23</t>
-        </is>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
@@ -3816,7 +3786,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112183137</v>
+        <v>112183150</v>
       </c>
       <c r="B28" t="n">
         <v>96348</v>
@@ -3860,10 +3830,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>572353.8764406883</v>
+        <v>572358</v>
       </c>
       <c r="R28" t="n">
-        <v>6714961.331215038</v>
+        <v>6714972</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -3893,19 +3863,9 @@
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA28" t="inlineStr">
         <is>
           <t>2023-08-23</t>
-        </is>
-      </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
@@ -3937,7 +3897,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112183134</v>
+        <v>112183143</v>
       </c>
       <c r="B29" t="n">
         <v>96348</v>
@@ -3981,10 +3941,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>572354.2307759319</v>
+        <v>572359</v>
       </c>
       <c r="R29" t="n">
-        <v>6714968.224010544</v>
+        <v>6714905</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -4014,19 +3974,9 @@
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA29" t="inlineStr">
         <is>
           <t>2023-08-23</t>
-        </is>
-      </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
@@ -4058,7 +4008,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112183140</v>
+        <v>112183147</v>
       </c>
       <c r="B30" t="n">
         <v>96348</v>
@@ -4102,10 +4052,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>572349.9172128371</v>
+        <v>572351</v>
       </c>
       <c r="R30" t="n">
-        <v>6714962.235448033</v>
+        <v>6714915</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -4135,19 +4085,9 @@
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA30" t="inlineStr">
         <is>
           <t>2023-08-23</t>
-        </is>
-      </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
@@ -4179,7 +4119,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112183141</v>
+        <v>112183134</v>
       </c>
       <c r="B31" t="n">
         <v>96348</v>
@@ -4223,10 +4163,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>572360.8881189874</v>
+        <v>572354</v>
       </c>
       <c r="R31" t="n">
-        <v>6714980.161596241</v>
+        <v>6714968</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -4256,19 +4196,9 @@
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA31" t="inlineStr">
         <is>
           <t>2023-08-23</t>
-        </is>
-      </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
@@ -4300,7 +4230,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112183150</v>
+        <v>112183146</v>
       </c>
       <c r="B32" t="n">
         <v>96348</v>
@@ -4344,10 +4274,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>572358.0913486973</v>
+        <v>572346</v>
       </c>
       <c r="R32" t="n">
-        <v>6714972.236145046</v>
+        <v>6714917</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -4377,19 +4307,9 @@
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA32" t="inlineStr">
         <is>
           <t>2023-08-23</t>
-        </is>
-      </c>
-      <c r="AB32" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
@@ -4421,7 +4341,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112183143</v>
+        <v>112183137</v>
       </c>
       <c r="B33" t="n">
         <v>96348</v>
@@ -4465,10 +4385,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>572358.9405480863</v>
+        <v>572354</v>
       </c>
       <c r="R33" t="n">
-        <v>6714905.363180133</v>
+        <v>6714961</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -4498,19 +4418,9 @@
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA33" t="inlineStr">
         <is>
           <t>2023-08-23</t>
-        </is>
-      </c>
-      <c r="AB33" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr">
@@ -4542,7 +4452,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112183151</v>
+        <v>112183140</v>
       </c>
       <c r="B34" t="n">
         <v>96348</v>
@@ -4586,10 +4496,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>572360.9275804338</v>
+        <v>572350</v>
       </c>
       <c r="R34" t="n">
-        <v>6714978.195056892</v>
+        <v>6714962</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -4619,19 +4529,9 @@
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA34" t="inlineStr">
         <is>
           <t>2023-08-23</t>
-        </is>
-      </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
@@ -4663,7 +4563,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112183147</v>
+        <v>112183145</v>
       </c>
       <c r="B35" t="n">
         <v>96348</v>
@@ -4707,10 +4607,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>572350.8641464638</v>
+        <v>572351</v>
       </c>
       <c r="R35" t="n">
-        <v>6714915.037975621</v>
+        <v>6714907</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -4740,19 +4640,9 @@
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA35" t="inlineStr">
         <is>
           <t>2023-08-23</t>
-        </is>
-      </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
@@ -4784,7 +4674,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112183146</v>
+        <v>112183149</v>
       </c>
       <c r="B36" t="n">
         <v>96348</v>
@@ -4828,10 +4718,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>572346.3926985958</v>
+        <v>572345</v>
       </c>
       <c r="R36" t="n">
-        <v>6714916.915632093</v>
+        <v>6714965</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -4861,19 +4751,9 @@
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA36" t="inlineStr">
         <is>
           <t>2023-08-23</t>
-        </is>
-      </c>
-      <c r="AB36" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC36" t="inlineStr">

--- a/artfynd/A 30593-2019.xlsx
+++ b/artfynd/A 30593-2019.xlsx
@@ -3456,7 +3456,7 @@
         <v>112183141</v>
       </c>
       <c r="B25" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3564,10 +3564,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112183151</v>
+        <v>112183134</v>
       </c>
       <c r="B26" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3608,10 +3608,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>572361</v>
+        <v>572354</v>
       </c>
       <c r="R26" t="n">
-        <v>6714978</v>
+        <v>6714968</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3675,10 +3675,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112183148</v>
+        <v>112183150</v>
       </c>
       <c r="B27" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3719,10 +3719,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>572357</v>
+        <v>572358</v>
       </c>
       <c r="R27" t="n">
-        <v>6714903</v>
+        <v>6714972</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -3786,10 +3786,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112183150</v>
+        <v>112183149</v>
       </c>
       <c r="B28" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3830,10 +3830,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>572358</v>
+        <v>572345</v>
       </c>
       <c r="R28" t="n">
-        <v>6714972</v>
+        <v>6714965</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -3897,10 +3897,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112183143</v>
+        <v>112183151</v>
       </c>
       <c r="B29" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3941,10 +3941,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>572359</v>
+        <v>572361</v>
       </c>
       <c r="R29" t="n">
-        <v>6714905</v>
+        <v>6714978</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -4008,10 +4008,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112183147</v>
+        <v>112183140</v>
       </c>
       <c r="B30" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4052,10 +4052,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>572351</v>
+        <v>572350</v>
       </c>
       <c r="R30" t="n">
-        <v>6714915</v>
+        <v>6714962</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -4119,10 +4119,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112183134</v>
+        <v>112183146</v>
       </c>
       <c r="B31" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4163,10 +4163,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>572354</v>
+        <v>572346</v>
       </c>
       <c r="R31" t="n">
-        <v>6714968</v>
+        <v>6714917</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -4230,10 +4230,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112183146</v>
+        <v>112183147</v>
       </c>
       <c r="B32" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4274,10 +4274,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>572346</v>
+        <v>572351</v>
       </c>
       <c r="R32" t="n">
-        <v>6714917</v>
+        <v>6714915</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -4341,10 +4341,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112183137</v>
+        <v>112183145</v>
       </c>
       <c r="B33" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4385,10 +4385,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>572354</v>
+        <v>572351</v>
       </c>
       <c r="R33" t="n">
-        <v>6714961</v>
+        <v>6714907</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -4452,10 +4452,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112183140</v>
+        <v>112183137</v>
       </c>
       <c r="B34" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4496,10 +4496,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>572350</v>
+        <v>572354</v>
       </c>
       <c r="R34" t="n">
-        <v>6714962</v>
+        <v>6714961</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -4563,10 +4563,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112183145</v>
+        <v>112183143</v>
       </c>
       <c r="B35" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4607,10 +4607,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>572351</v>
+        <v>572359</v>
       </c>
       <c r="R35" t="n">
-        <v>6714907</v>
+        <v>6714905</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -4674,10 +4674,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112183149</v>
+        <v>112183148</v>
       </c>
       <c r="B36" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4718,10 +4718,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>572345</v>
+        <v>572357</v>
       </c>
       <c r="R36" t="n">
-        <v>6714965</v>
+        <v>6714903</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>

--- a/artfynd/A 30593-2019.xlsx
+++ b/artfynd/A 30593-2019.xlsx
@@ -3453,10 +3453,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112183141</v>
+        <v>112183146</v>
       </c>
       <c r="B25" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3497,10 +3497,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>572361</v>
+        <v>572346</v>
       </c>
       <c r="R25" t="n">
-        <v>6714980</v>
+        <v>6714917</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3564,10 +3564,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112183134</v>
+        <v>112183148</v>
       </c>
       <c r="B26" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3608,10 +3608,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>572354</v>
+        <v>572357</v>
       </c>
       <c r="R26" t="n">
-        <v>6714968</v>
+        <v>6714903</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3675,10 +3675,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112183150</v>
+        <v>112183141</v>
       </c>
       <c r="B27" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3719,10 +3719,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>572358</v>
+        <v>572361</v>
       </c>
       <c r="R27" t="n">
-        <v>6714972</v>
+        <v>6714980</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -3786,10 +3786,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112183149</v>
+        <v>112183143</v>
       </c>
       <c r="B28" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3830,10 +3830,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>572345</v>
+        <v>572359</v>
       </c>
       <c r="R28" t="n">
-        <v>6714965</v>
+        <v>6714905</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -3897,10 +3897,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112183151</v>
+        <v>112183140</v>
       </c>
       <c r="B29" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3941,10 +3941,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>572361</v>
+        <v>572350</v>
       </c>
       <c r="R29" t="n">
-        <v>6714978</v>
+        <v>6714962</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -4008,10 +4008,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112183140</v>
+        <v>112183151</v>
       </c>
       <c r="B30" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4052,10 +4052,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>572350</v>
+        <v>572361</v>
       </c>
       <c r="R30" t="n">
-        <v>6714962</v>
+        <v>6714978</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -4119,10 +4119,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112183146</v>
+        <v>112183145</v>
       </c>
       <c r="B31" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4163,10 +4163,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>572346</v>
+        <v>572351</v>
       </c>
       <c r="R31" t="n">
-        <v>6714917</v>
+        <v>6714907</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -4230,10 +4230,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112183147</v>
+        <v>112183134</v>
       </c>
       <c r="B32" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4274,10 +4274,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>572351</v>
+        <v>572354</v>
       </c>
       <c r="R32" t="n">
-        <v>6714915</v>
+        <v>6714968</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -4341,10 +4341,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112183145</v>
+        <v>112183137</v>
       </c>
       <c r="B33" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4385,10 +4385,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>572351</v>
+        <v>572354</v>
       </c>
       <c r="R33" t="n">
-        <v>6714907</v>
+        <v>6714961</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -4452,10 +4452,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112183137</v>
+        <v>112183147</v>
       </c>
       <c r="B34" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4496,10 +4496,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>572354</v>
+        <v>572351</v>
       </c>
       <c r="R34" t="n">
-        <v>6714961</v>
+        <v>6714915</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -4563,10 +4563,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112183143</v>
+        <v>112183149</v>
       </c>
       <c r="B35" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4607,10 +4607,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>572359</v>
+        <v>572345</v>
       </c>
       <c r="R35" t="n">
-        <v>6714905</v>
+        <v>6714965</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -4674,10 +4674,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112183148</v>
+        <v>112183150</v>
       </c>
       <c r="B36" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4718,10 +4718,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>572357</v>
+        <v>572358</v>
       </c>
       <c r="R36" t="n">
-        <v>6714903</v>
+        <v>6714972</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>

--- a/artfynd/A 30593-2019.xlsx
+++ b/artfynd/A 30593-2019.xlsx
@@ -3453,7 +3453,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112183146</v>
+        <v>112183150</v>
       </c>
       <c r="B25" t="n">
         <v>96735</v>
@@ -3497,10 +3497,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>572346</v>
+        <v>572358</v>
       </c>
       <c r="R25" t="n">
-        <v>6714917</v>
+        <v>6714972</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3564,7 +3564,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112183148</v>
+        <v>112183134</v>
       </c>
       <c r="B26" t="n">
         <v>96735</v>
@@ -3608,10 +3608,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>572357</v>
+        <v>572354</v>
       </c>
       <c r="R26" t="n">
-        <v>6714903</v>
+        <v>6714968</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3675,7 +3675,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112183141</v>
+        <v>112183151</v>
       </c>
       <c r="B27" t="n">
         <v>96735</v>
@@ -3722,7 +3722,7 @@
         <v>572361</v>
       </c>
       <c r="R27" t="n">
-        <v>6714980</v>
+        <v>6714978</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -3786,7 +3786,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112183143</v>
+        <v>112183148</v>
       </c>
       <c r="B28" t="n">
         <v>96735</v>
@@ -3830,10 +3830,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>572359</v>
+        <v>572357</v>
       </c>
       <c r="R28" t="n">
-        <v>6714905</v>
+        <v>6714903</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -3897,7 +3897,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112183140</v>
+        <v>112183143</v>
       </c>
       <c r="B29" t="n">
         <v>96735</v>
@@ -3941,10 +3941,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>572350</v>
+        <v>572359</v>
       </c>
       <c r="R29" t="n">
-        <v>6714962</v>
+        <v>6714905</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -4008,7 +4008,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112183151</v>
+        <v>112183145</v>
       </c>
       <c r="B30" t="n">
         <v>96735</v>
@@ -4052,10 +4052,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>572361</v>
+        <v>572351</v>
       </c>
       <c r="R30" t="n">
-        <v>6714978</v>
+        <v>6714907</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112183145</v>
+        <v>112183146</v>
       </c>
       <c r="B31" t="n">
         <v>96735</v>
@@ -4163,10 +4163,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>572351</v>
+        <v>572346</v>
       </c>
       <c r="R31" t="n">
-        <v>6714907</v>
+        <v>6714917</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -4230,7 +4230,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112183134</v>
+        <v>112183141</v>
       </c>
       <c r="B32" t="n">
         <v>96735</v>
@@ -4274,10 +4274,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>572354</v>
+        <v>572361</v>
       </c>
       <c r="R32" t="n">
-        <v>6714968</v>
+        <v>6714980</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -4563,7 +4563,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112183149</v>
+        <v>112183140</v>
       </c>
       <c r="B35" t="n">
         <v>96735</v>
@@ -4607,10 +4607,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>572345</v>
+        <v>572350</v>
       </c>
       <c r="R35" t="n">
-        <v>6714965</v>
+        <v>6714962</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -4674,7 +4674,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112183150</v>
+        <v>112183149</v>
       </c>
       <c r="B36" t="n">
         <v>96735</v>
@@ -4718,10 +4718,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>572358</v>
+        <v>572345</v>
       </c>
       <c r="R36" t="n">
-        <v>6714972</v>
+        <v>6714965</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
